--- a/SuppXLS/Scen_CO2_Price.xlsx
+++ b/SuppXLS/Scen_CO2_Price.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,19 +424,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>~TFM_INS</t>
+          <t>~TFM_DINS-AT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>region</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>cset_cn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -446,81 +446,61 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>commodity</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>value</t>
+          <t>com_cstnet</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>COM_CSTNET</t>
+          <t>NORTH,SOUTH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NORTH,SOUTH</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2025</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COM_CSTNET</t>
+          <t>NORTH,SOUTH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NORTH,SOUTH</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2030</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COM_CSTNET</t>
+          <t>NORTH,SOUTH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NORTH,SOUTH</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2050</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>200</v>
       </c>
     </row>
